--- a/files/oedometer/oedo_trainingsdata_compare3.xlsx
+++ b/files/oedometer/oedo_trainingsdata_compare3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab185\Documents\00_Tim\01_Implementierung\pina_oedometer\files\oedometer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837DA014-FAEA-4AFE-9DA1-CFFC537D2B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD3250D-16BD-4A4B-BACD-C1C2C7380CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{50A14771-5DE2-4F7F-B1C2-FBA757204E51}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{50A14771-5DE2-4F7F-B1C2-FBA757204E51}"/>
   </bookViews>
   <sheets>
     <sheet name="Calc" sheetId="1" r:id="rId1"/>
@@ -68,16 +68,16 @@
     <t>index</t>
   </si>
   <si>
-    <t>epsilon</t>
-  </si>
-  <si>
-    <t>sigma_0</t>
-  </si>
-  <si>
     <t>delta_epsilon</t>
   </si>
   <si>
-    <t>sigma_1</t>
+    <t>sigma_t</t>
+  </si>
+  <si>
+    <t>delta_sigma</t>
+  </si>
+  <si>
+    <t>total_epsilon</t>
   </si>
 </sst>
 </file>
@@ -2092,7 +2092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B0042C-B8AC-441C-82C7-381CF83F78F0}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -6527,11 +6527,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB52C03B-D005-47E5-B3C9-E4C11C949E61}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30">
       <c r="A1" s="6" t="s">
@@ -6541,16 +6544,16 @@
         <v>10</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/files/oedometer/oedo_trainingsdata_compare3.xlsx
+++ b/files/oedometer/oedo_trainingsdata_compare3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab185\Documents\00_Tim\01_Implementierung\pina_oedometer\files\oedometer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD3250D-16BD-4A4B-BACD-C1C2C7380CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998465C9-171A-45B4-9F63-9FE8D0858B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{50A14771-5DE2-4F7F-B1C2-FBA757204E51}"/>
   </bookViews>
@@ -6528,7 +6528,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -6566,7 +6566,6 @@
         <v>1500</v>
       </c>
       <c r="C2">
-        <f>IF(ISBLANK(Calc!C8),"",Calc!C8)</f>
         <v>0</v>
       </c>
       <c r="D2">
@@ -6592,8 +6591,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f>IF(ISBLANK(Calc!C9),"",Calc!C9)</f>
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f>IF(ISBLANK(Calc!D9),"",Calc!D9)</f>
@@ -6618,8 +6616,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>IF(ISBLANK(Calc!C10),"",Calc!C10)</f>
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f>IF(ISBLANK(Calc!D10),"",Calc!D10)</f>
@@ -6644,8 +6641,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <f>IF(ISBLANK(Calc!C11),"",Calc!C11)</f>
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f>IF(ISBLANK(Calc!D11),"",Calc!D11)</f>
@@ -6670,8 +6666,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f>IF(ISBLANK(Calc!C12),"",Calc!C12)</f>
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f>IF(ISBLANK(Calc!D12),"",Calc!D12)</f>
@@ -6696,8 +6691,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <f>IF(ISBLANK(Calc!C13),"",Calc!C13)</f>
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f>IF(ISBLANK(Calc!D13),"",Calc!D13)</f>
@@ -6722,8 +6716,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <f>IF(ISBLANK(Calc!C14),"",Calc!C14)</f>
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <f>IF(ISBLANK(Calc!D14),"",Calc!D14)</f>
@@ -6748,8 +6741,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <f>IF(ISBLANK(Calc!C15),"",Calc!C15)</f>
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <f>IF(ISBLANK(Calc!D15),"",Calc!D15)</f>
@@ -6774,8 +6766,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <f>IF(ISBLANK(Calc!C16),"",Calc!C16)</f>
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f>IF(ISBLANK(Calc!D16),"",Calc!D16)</f>
@@ -6800,12 +6791,10 @@
         <v>854</v>
       </c>
       <c r="C11">
-        <f>IF(ISBLANK(Calc!C17),"",Calc!C17)</f>
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <f>IF(ISBLANK(Calc!D17),"",Calc!D17)</f>
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E11">
         <f>IF(ISBLANK(Calc!E17),"",Calc!E17)</f>
@@ -6826,8 +6815,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <f>IF(ISBLANK(Calc!C18),"",Calc!C18)</f>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f>IF(ISBLANK(Calc!D18),"",Calc!D18)</f>
@@ -6852,8 +6840,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <f>IF(ISBLANK(Calc!C19),"",Calc!C19)</f>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <f>IF(ISBLANK(Calc!D19),"",Calc!D19)</f>
@@ -6878,8 +6865,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <f>IF(ISBLANK(Calc!C20),"",Calc!C20)</f>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <f>IF(ISBLANK(Calc!D20),"",Calc!D20)</f>
@@ -6904,8 +6890,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <f>IF(ISBLANK(Calc!C21),"",Calc!C21)</f>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <f>IF(ISBLANK(Calc!D21),"",Calc!D21)</f>
@@ -6930,8 +6915,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <f>IF(ISBLANK(Calc!C22),"",Calc!C22)</f>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <f>IF(ISBLANK(Calc!D22),"",Calc!D22)</f>
@@ -6956,8 +6940,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <f>IF(ISBLANK(Calc!C23),"",Calc!C23)</f>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <f>IF(ISBLANK(Calc!D23),"",Calc!D23)</f>
@@ -6982,8 +6965,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <f>IF(ISBLANK(Calc!C24),"",Calc!C24)</f>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <f>IF(ISBLANK(Calc!D24),"",Calc!D24)</f>
@@ -7008,8 +6990,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <f>IF(ISBLANK(Calc!C25),"",Calc!C25)</f>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <f>IF(ISBLANK(Calc!D25),"",Calc!D25)</f>
@@ -7034,8 +7015,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <f>IF(ISBLANK(Calc!C26),"",Calc!C26)</f>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <f>IF(ISBLANK(Calc!D26),"",Calc!D26)</f>
@@ -7060,8 +7040,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <f>IF(ISBLANK(Calc!C27),"",Calc!C27)</f>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <f>IF(ISBLANK(Calc!D27),"",Calc!D27)</f>
